--- a/data/subscription.xlsx
+++ b/data/subscription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="list_subscription" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="341">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,183 +61,1192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all user subscription should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EventNodification</t>
+  </si>
+  <si>
+    <t>subscription -u test_user_0 -t shortcut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_1 -t enclosure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_2 -t raid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_3 -t host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_3 -t other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u administrator -t drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_3 subscription of other type should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator subscription of drive type should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_3 subscription of host type should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_2 subscription of raid type should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_1 subscription of enclosure type should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_0 subscription of scortcut type should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>Enclosure:</t>
+  </si>
+  <si>
+    <t>RaidCore:</t>
+  </si>
+  <si>
+    <t>HostInterface:</t>
+  </si>
+  <si>
+    <t>HostInterface:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriveInterface:</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Battery:</t>
+  </si>
+  <si>
+    <t>Bbu:</t>
+  </si>
+  <si>
+    <t>Blower:</t>
+  </si>
+  <si>
+    <t>CoolingUnit:</t>
+  </si>
+  <si>
+    <t>Psu:</t>
+  </si>
+  <si>
+    <t>Sep:</t>
+  </si>
+  <si>
+    <t>Temperature:</t>
+  </si>
+  <si>
+    <t>Controller:</t>
+  </si>
+  <si>
+    <t>DiskArray:</t>
+  </si>
+  <si>
+    <t>Initialization:</t>
+  </si>
+  <si>
+    <t>LogicalDrive:</t>
+  </si>
+  <si>
+    <t>Ddf:</t>
+  </si>
+  <si>
+    <t>MediaPatrol:</t>
+  </si>
+  <si>
+    <t>OnlineCapacityExpansion:</t>
+  </si>
+  <si>
+    <t>PhysicalDisk:</t>
+  </si>
+  <si>
+    <t>RaidMigaration:</t>
+  </si>
+  <si>
+    <t>Rebuild:</t>
+  </si>
+  <si>
+    <t>RedundancyCheck:</t>
+  </si>
+  <si>
+    <t>Smart:</t>
+  </si>
+  <si>
+    <t>Synchronization:</t>
+  </si>
+  <si>
+    <t>Subsystem:</t>
+  </si>
+  <si>
+    <t>SpareCheck:</t>
+  </si>
+  <si>
+    <t>Pool:</t>
+  </si>
+  <si>
+    <t>VolumeSharedisk:</t>
+  </si>
+  <si>
+    <t>Cache:</t>
+  </si>
+  <si>
+    <t>SnapshotClone:</t>
+  </si>
+  <si>
+    <t>Ups:</t>
+  </si>
+  <si>
+    <t>Os:</t>
+  </si>
+  <si>
+    <t>subscription -u administrator -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator subscription should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type: Shortcut</t>
+  </si>
+  <si>
+    <t>Type: Enclosure</t>
+  </si>
+  <si>
+    <t>Type: RAID core</t>
+  </si>
+  <si>
+    <t>Type: Host Interface</t>
+  </si>
+  <si>
+    <t>Type: Drive Interface</t>
+  </si>
+  <si>
+    <t>Type: Other</t>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of administrator user should be modified by "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of administrator user should be modified by "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_0 -s "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_0 user should be modified by "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_0 user should be modified by "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_1 -s "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_1 user should be modified by "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_1 -s "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_1 user should be modified by "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_2 -s "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_2 user should be modified by "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_2 -s "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_2 user should be modified by "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_3 -s "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_3 user should be modified by "enclosure=info,raid=warning,host=minor,drive=major,other=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_3 -s "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_3 user should be modified by "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_0 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_2 -v</t>
+  </si>
+  <si>
+    <t>subscription -u test_user_3 -v</t>
+  </si>
+  <si>
+    <t>Enclosure: info</t>
+  </si>
+  <si>
+    <t>RaidCore: warning</t>
+  </si>
+  <si>
+    <t>HostInterface: minor</t>
+  </si>
+  <si>
+    <t>DriveInterface: major</t>
+  </si>
+  <si>
+    <t>Battery: info</t>
+  </si>
+  <si>
+    <t>Bbu: info</t>
+  </si>
+  <si>
+    <t>Blower: info</t>
+  </si>
+  <si>
+    <t>CoolingUnit: info</t>
+  </si>
+  <si>
+    <t>Psu: info</t>
+  </si>
+  <si>
+    <t>Sep: info</t>
+  </si>
+  <si>
+    <t>Temperature: info</t>
+  </si>
+  <si>
+    <t>Controller: warning</t>
+  </si>
+  <si>
+    <t>DiskArray: warning</t>
+  </si>
+  <si>
+    <t>Initialization: warning</t>
+  </si>
+  <si>
+    <t>LogicalDrive: warning</t>
+  </si>
+  <si>
+    <t>MediaPatrol: warning</t>
+  </si>
+  <si>
+    <t>OnlineCapacityExpansion: warning</t>
+  </si>
+  <si>
+    <t>PhysicalDisk: warning</t>
+  </si>
+  <si>
+    <t>RaidMigaration: warning</t>
+  </si>
+  <si>
+    <t>Rebuild: warning</t>
+  </si>
+  <si>
+    <t>RedundancyCheck: warning</t>
+  </si>
+  <si>
+    <t>Smart: warning</t>
+  </si>
+  <si>
+    <t>Synchronization: warning</t>
+  </si>
+  <si>
+    <t>Subsystem: warning</t>
+  </si>
+  <si>
+    <t>SpareCheck: warning</t>
+  </si>
+  <si>
+    <t>Pool: warning</t>
+  </si>
+  <si>
+    <t>VolumeSharedisk: warning</t>
+  </si>
+  <si>
+    <t>Cache: warning</t>
+  </si>
+  <si>
+    <t>SnapshotClone: warning</t>
+  </si>
+  <si>
+    <t>Ups: fatal</t>
+  </si>
+  <si>
+    <t>Os: fatal</t>
+  </si>
+  <si>
+    <t>Enclosure: none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enclosure: major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaidCore: fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaidCore: major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HostInterface: major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HostInterface: critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HostInterface: minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriveInterface: minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriveInterface: info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_0 -s "enclosure=none,raid=fatal,host=critical,drive=minor,other=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_0 -s "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_1 -s "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_2 -s "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_3 -s "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of administrator user should be modified by "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_0 user should be modified by "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_1 user should be modified by "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_2 user should be modified by "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_3 user should be modified by "enclosure=major,raid=major,host=major,drive=info,other=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other: fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other: info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other: warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery: none</t>
+  </si>
+  <si>
+    <t>Bbu: none</t>
+  </si>
+  <si>
+    <t>Blower: none</t>
+  </si>
+  <si>
+    <t>CoolingUnit: none</t>
+  </si>
+  <si>
+    <t>Psu: none</t>
+  </si>
+  <si>
+    <t>Sep: none</t>
+  </si>
+  <si>
+    <t>Temperature: none</t>
+  </si>
+  <si>
+    <t>Battery: major</t>
+  </si>
+  <si>
+    <t>Bbu: major</t>
+  </si>
+  <si>
+    <t>Blower: major</t>
+  </si>
+  <si>
+    <t>CoolingUnit: major</t>
+  </si>
+  <si>
+    <t>Psu: major</t>
+  </si>
+  <si>
+    <t>Sep: major</t>
+  </si>
+  <si>
+    <t>Temperature: major</t>
+  </si>
+  <si>
+    <t>Controller: fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller: major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiskArray: fatal</t>
+  </si>
+  <si>
+    <t>Initialization: fatal</t>
+  </si>
+  <si>
+    <t>LogicalDrive: fatal</t>
+  </si>
+  <si>
+    <t>MediaPatrol: fatal</t>
+  </si>
+  <si>
+    <t>OnlineCapacityExpansion: fatal</t>
+  </si>
+  <si>
+    <t>PhysicalDisk: fatal</t>
+  </si>
+  <si>
+    <t>RaidMigaration: fatal</t>
+  </si>
+  <si>
+    <t>Rebuild: fatal</t>
+  </si>
+  <si>
+    <t>RedundancyCheck: fatal</t>
+  </si>
+  <si>
+    <t>Smart: fatal</t>
+  </si>
+  <si>
+    <t>Synchronization: fatal</t>
+  </si>
+  <si>
+    <t>Subsystem: fatal</t>
+  </si>
+  <si>
+    <t>SpareCheck: fatal</t>
+  </si>
+  <si>
+    <t>Pool: fatal</t>
+  </si>
+  <si>
+    <t>VolumeSharedisk: fatal</t>
+  </si>
+  <si>
+    <t>Cache: fatal</t>
+  </si>
+  <si>
+    <t>SnapshotClone: fatal</t>
+  </si>
+  <si>
+    <t>DiskArray: major</t>
+  </si>
+  <si>
+    <t>Initialization: major</t>
+  </si>
+  <si>
+    <t>LogicalDrive: major</t>
+  </si>
+  <si>
+    <t>MediaPatrol: major</t>
+  </si>
+  <si>
+    <t>OnlineCapacityExpansion: major</t>
+  </si>
+  <si>
+    <t>PhysicalDisk: major</t>
+  </si>
+  <si>
+    <t>RaidMigaration: major</t>
+  </si>
+  <si>
+    <t>Rebuild: major</t>
+  </si>
+  <si>
+    <t>RedundancyCheck: major</t>
+  </si>
+  <si>
+    <t>Smart: major</t>
+  </si>
+  <si>
+    <t>Synchronization: major</t>
+  </si>
+  <si>
+    <t>Subsystem: major</t>
+  </si>
+  <si>
+    <t>SpareCheck: major</t>
+  </si>
+  <si>
+    <t>Pool: major</t>
+  </si>
+  <si>
+    <t>VolumeSharedisk: major</t>
+  </si>
+  <si>
+    <t>Cache: major</t>
+  </si>
+  <si>
+    <t>SnapshotClone: major</t>
+  </si>
+  <si>
+    <t>HostInterface: major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriveInterface: minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ups: info</t>
+  </si>
+  <si>
+    <t>Ups: info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os: info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ups: warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os: warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -s "battery=info,bbu=warning,blower=minor,cu=major,psu=critical,sep=fatal,temp=none"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "battery=info,bbu=warning,blower=minor,cu=major,psu=critical,sep=fatal,temp=none"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of all user should be modified by "battery=info,bbu=warning,blower=minor,cu=major,psu=critical,sep=fatal,temp=none"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of administrator user should be modified by "battery=info,bbu=warning,blower=minor,cu=major,psu=critical,sep=fatal,temp=none"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u administrator -t enclosure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bbu: warning</t>
+  </si>
+  <si>
+    <t>Psu: critical</t>
+  </si>
+  <si>
+    <t>Sep: fatal</t>
+  </si>
+  <si>
+    <t>Blower: minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_0 should be modified by "ctrl=info,da=warning,init=minor,ld=major,ddf=critical,mp=fatal,oce=none,pd=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_1 should be modified by "rm=warning,rebuild=minor,rc=major,smart=critical,sync=fatal,subsys=none,pdm=info,sc=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_0 -t raid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_1 -t raid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_1 -s "rm=warning,rebuild=minor,rc=major,smart=critical,sync=fatal,subsys=none,pdm=info,sc=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_2 -s "hictrl=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_2 should be modified by "hictrl=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_2 -t host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HostInterface: info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_2 -s "dictrl=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of test_user_2 should be modified by "dictrl=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_2 -t drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriveInterface: warning</t>
+  </si>
+  <si>
+    <t>subscription of test_user_3 should be modified by "ups=info,app=minor"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_user_3 -t other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_3 -s "ups=info,app=minor"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os: minor</t>
+  </si>
+  <si>
+    <t>subscription -a mod -u test_user_0 -s "ctrl=info,da=warning,init=minor,ld=major,ddf=critical,mp=fatal,oce=none,pd=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a disable -u administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a enable -u administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u administrator</t>
+  </si>
+  <si>
+    <t>subscription of administrator should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription of administrator should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a test -u administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u test_no_user -t shortcut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u administrator -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "enclosure=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "raid=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "battery=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "bbu=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "blower=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "cu=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "psu=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "sep=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "temp=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "ctrl=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "da=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "init=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "ld=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "ddf=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "mp=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "oce=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "pd=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "rm=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "rebuild=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "rc=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "smart=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "sync=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "subsys=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "pdm=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "sc=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "hictrl=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "dictrl=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "ups=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "app=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a disable test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a enable test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a enable -u test_no_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a test test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting user name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting type of event subscription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting enclosure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting raid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting bbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting blower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting psu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting sep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ddf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting oce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting rebuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting subsys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting pdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting hictrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting dictrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a disable -u test_no_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username not found</t>
+  </si>
+  <si>
+    <t>invalid setting test (shortcut|enclosure|raid|host|drive|other)</t>
+  </si>
+  <si>
+    <t>invalid setting test (info|warning|minor|major|critical|fatal|none)</t>
+  </si>
+  <si>
+    <t>Invalid username</t>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "drive=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "other=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "host=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u administrator -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod -u administrator -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a disable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a enable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a test -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -u administrator -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription -a mod -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription -a mod -u administrator </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription -a mod -u administrator -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription -a enable -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription -a disable -u </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send a test email to the email address of administrator user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Invalid option for the command or the action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all user subscription should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>EventNodification</t>
-  </si>
-  <si>
-    <t>subscription -u test_user_0 -t shortcut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -u test_user_1 -t enclosure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -u test_user_2 -t raid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -u test_user_3 -t host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -u test_user_3 -t other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -u administrator -t drive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_3 subscription of other type should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator subscription of drive type should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_3 subscription of host type should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_2 subscription of raid type should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_1 subscription of enclosure type should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_0 subscription of scortcut type should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type:</t>
-  </si>
-  <si>
-    <t>Enclosure:</t>
-  </si>
-  <si>
-    <t>RaidCore:</t>
-  </si>
-  <si>
-    <t>HostInterface:</t>
-  </si>
-  <si>
-    <t>HostInterface:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DriveInterface:</t>
-  </si>
-  <si>
-    <t>Other:</t>
-  </si>
-  <si>
-    <t>Battery:</t>
-  </si>
-  <si>
-    <t>Bbu:</t>
-  </si>
-  <si>
-    <t>Blower:</t>
-  </si>
-  <si>
-    <t>CoolingUnit:</t>
-  </si>
-  <si>
-    <t>Psu:</t>
-  </si>
-  <si>
-    <t>Sep:</t>
-  </si>
-  <si>
-    <t>Temperature:</t>
-  </si>
-  <si>
-    <t>Controller:</t>
-  </si>
-  <si>
-    <t>DiskArray:</t>
-  </si>
-  <si>
-    <t>Initialization:</t>
-  </si>
-  <si>
-    <t>LogicalDrive:</t>
-  </si>
-  <si>
-    <t>Ddf:</t>
-  </si>
-  <si>
-    <t>MediaPatrol:</t>
-  </si>
-  <si>
-    <t>OnlineCapacityExpansion:</t>
-  </si>
-  <si>
-    <t>PhysicalDisk:</t>
-  </si>
-  <si>
-    <t>RaidMigaration:</t>
-  </si>
-  <si>
-    <t>Rebuild:</t>
-  </si>
-  <si>
-    <t>RedundancyCheck:</t>
-  </si>
-  <si>
-    <t>Smart:</t>
-  </si>
-  <si>
-    <t>Synchronization:</t>
-  </si>
-  <si>
-    <t>Subsystem:</t>
-  </si>
-  <si>
-    <t>SpareCheck:</t>
-  </si>
-  <si>
-    <t>Pool:</t>
-  </si>
-  <si>
-    <t>VolumeSharedisk:</t>
-  </si>
-  <si>
-    <t>Cache:</t>
-  </si>
-  <si>
-    <t>SnapshotClone:</t>
-  </si>
-  <si>
-    <t>Ups:</t>
-  </si>
-  <si>
-    <t>Os:</t>
   </si>
 </sst>
 </file>
@@ -592,7 +1601,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,190 +1642,190 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>57</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>58</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>59</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>60</v>
-      </c>
-      <c r="V5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -828,22 +1837,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
@@ -859,7 +1868,7 @@
     <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -870,192 +1879,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1067,24 +1914,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="128.5" customWidth="1"/>
+    <col min="2" max="2" width="141.5" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1096,6 +1977,2081 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W3" t="s">
+        <v>167</v>
+      </c>
+      <c r="X3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" t="s">
+        <v>183</v>
+      </c>
+      <c r="W4" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" t="s">
+        <v>164</v>
+      </c>
+      <c r="U6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" t="s">
+        <v>167</v>
+      </c>
+      <c r="X6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>163</v>
+      </c>
+      <c r="T7" t="s">
+        <v>181</v>
+      </c>
+      <c r="U7" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" t="s">
+        <v>183</v>
+      </c>
+      <c r="W7" t="s">
+        <v>184</v>
+      </c>
+      <c r="X7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U9" t="s">
+        <v>165</v>
+      </c>
+      <c r="V9" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" t="s">
+        <v>167</v>
+      </c>
+      <c r="X9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" t="s">
+        <v>163</v>
+      </c>
+      <c r="T10" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V10" t="s">
+        <v>183</v>
+      </c>
+      <c r="W10" t="s">
+        <v>184</v>
+      </c>
+      <c r="X10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" t="s">
+        <v>164</v>
+      </c>
+      <c r="U12" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" t="s">
+        <v>166</v>
+      </c>
+      <c r="W12" t="s">
+        <v>167</v>
+      </c>
+      <c r="X12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" t="s">
+        <v>163</v>
+      </c>
+      <c r="T13" t="s">
+        <v>181</v>
+      </c>
+      <c r="U13" t="s">
+        <v>182</v>
+      </c>
+      <c r="V13" t="s">
+        <v>183</v>
+      </c>
+      <c r="W13" t="s">
+        <v>184</v>
+      </c>
+      <c r="X13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U14" t="s">
+        <v>107</v>
+      </c>
+      <c r="V14" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>154</v>
+      </c>
+      <c r="R15" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" t="s">
+        <v>162</v>
+      </c>
+      <c r="T15" t="s">
+        <v>164</v>
+      </c>
+      <c r="U15" t="s">
+        <v>165</v>
+      </c>
+      <c r="V15" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" t="s">
+        <v>163</v>
+      </c>
+      <c r="T16" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" t="s">
+        <v>182</v>
+      </c>
+      <c r="V16" t="s">
+        <v>183</v>
+      </c>
+      <c r="W16" t="s">
+        <v>184</v>
+      </c>
+      <c r="X16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1107,17 +4063,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
@@ -1135,6 +4091,62 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1146,84 +4158,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
     </row>
   </sheetData>
@@ -1235,17 +4240,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.75" customWidth="1"/>
-    <col min="3" max="3" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="56.625" customWidth="1"/>
     <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1261,6 +4266,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1268,108 +4276,488 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="D54" s="2"/>
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D62" s="3"/>
+      <c r="A61" s="4"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D75" s="2"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1379,10 +4767,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1404,18 +4792,81 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1450,15 +4901,125 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/subscription.xlsx
+++ b/data/subscription.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="339">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1214,14 +1214,6 @@
   </si>
   <si>
     <t xml:space="preserve">subscription -a mod -u administrator -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -a disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscription -a enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4189,7 +4181,7 @@
         <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -4796,7 +4788,7 @@
         <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -4877,10 +4869,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4905,7 +4897,7 @@
         <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4968,7 +4960,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -4979,7 +4971,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -4990,34 +4982,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
         <v>1</v>
       </c>
     </row>
